--- a/data/Mel/132.xlsx
+++ b/data/Mel/132.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoria/PopDynIZW Dropbox/Viktoriia Radchuk/Work/Conferences/2021_Theory_ABMdevelopment/Paper_SystLitReview_OfABMs/SLR_Analyses/data/Mel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D54713E-4FE0-434B-AAE0-CFFA78CEF277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD4536F-B1C3-054B-8C54-CE7229B96208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="8180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38860" windowHeight="25500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -3324,9 +3324,9 @@
   </sheetPr>
   <dimension ref="B1:N1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C13" sqref="C13:C19"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
